--- a/medicine/Psychotrope/Brauerei_Diebels/Brauerei_Diebels.xlsx
+++ b/medicine/Psychotrope/Brauerei_Diebels/Brauerei_Diebels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Diebels GmbH &amp; Co. KG est une brasserie à Issum.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Diebels est fondée en 1878 par le brasseur de Krefeld Josef Diebels à Issum. Après 20 ans, la brasserie atteint une production annuelle de 10 000 hectolitres en 1898. En 1928, 27 employés travaillent pour Diebels et produisent 24 500 hectolitres. Pendant la Seconde Guerre mondiale, les destructions sont minimes et l'entreprise croît pendant la reprise économique. En 1967, 175 000 hectolitres sont produits.
 Jusqu'au début des années 1970, presque toutes les bières pour l'Allemagne sont brassées dans une brasserie plutôt locale. La nouvelle stratégie de Diebels est devenir un spécialiste de l'Altbier. Il n'a été brassé que dans un Altbier à fermentation haute et a fait connaître la marque Diebels au niveau national. La fermentation haute fait connaître la marque Diebels au niveau national. Elle conquiert ainsi la moitié du marché pour cette bière. Dès 1975, la production atteignait 500 000 hectolitres et six ans plus tard, 1 000 000 hectolitres. En 1987, la brasserie Diebels présente la première Altbier non alcoolisée sous le nom Issumer Alt alkoholfrei.
@@ -548,7 +562,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Diebels : Altbier avec un degré d'alcool de 4,9%
 Diebels Alkoholfrei : variante sans alcool de l'Altbier
